--- a/scripts/index_example.xlsx
+++ b/scripts/index_example.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27521"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sudoo\Documents\auto-key\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F12E387-C233-4FA8-9D21-C210E980E88F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19DF6B60-A3FD-4E29-B36F-65A76D7919F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="3090" windowWidth="27360" windowHeight="12330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,25 +34,13 @@
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>F L:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-move, 移动到 offset_x, ofset_y 位置
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>move, 移动到 offset_x, ofset_y 位置
 click, 识图 *.png 后鼠标左键单击
 db_click, 识图 *.png 后鼠标左键双击
 r_click, 识图 *.png 后鼠标右键单击
@@ -73,23 +61,27 @@
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>F L:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-设置跳转到第*条指令，用于构建简单的循环。</t>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>设置跳转到第*条指令，用于构建简单的循环。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{F8E21965-17F0-4D1E-BE0C-7712FB72697C}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>将鼠标移动至相对屏幕位置：横向100，纵向200，移动到位置后休息0.2s</t>
         </r>
       </text>
     </comment>
@@ -97,25 +89,13 @@
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>F L:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-光标移动到屏幕像素坐标(100,200)
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">光标移动到屏幕像素坐标(100,200)
 </t>
         </r>
       </text>
@@ -124,25 +104,13 @@
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>F L:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-光标移动到屏幕像素坐标(100,200)</t>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>光标移动到屏幕像素坐标(100,200)</t>
         </r>
       </text>
     </comment>
@@ -150,25 +118,13 @@
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>F L:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-要识别的图片的名称</t>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>要识别的图片的名称</t>
         </r>
       </text>
     </comment>
@@ -176,25 +132,13 @@
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>F L:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-识别 1.png 图片后，依图片中心位置，横向偏移300像素，纵向偏移400像素，然后左键单击。</t>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>识别 1.png 图片后，依图片中心位置，横向偏移300像素，纵向偏移400像素，然后左键单击。</t>
         </r>
       </text>
     </comment>
@@ -202,25 +146,13 @@
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>F L:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-识别 1.png 图片后，依图片中心位置，横向偏移300像素，纵向偏移400像素，然后左键单击。</t>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>识别 1.png 图片后，依图片中心位置，横向偏移300像素，纵向偏移400像素，然后左键单击。</t>
         </r>
       </text>
     </comment>
@@ -228,25 +160,13 @@
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>F L:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-识别所有以btn开头的图片，例如 btn_baidu.png btn_bing.png ，尝试识别到其中任意一个。未设置偏移量，所以不用偏移。识别到其中任意一个btn开头的图片后，进行鼠标左键双击。</t>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>识别所有以btn开头的图片，例如 btn_baidu.png btn_bing.png ，尝试识别到其中任意一个。未设置偏移量，所以不用偏移。识别到其中任意一个btn开头的图片后，进行鼠标左键双击。</t>
         </r>
       </text>
     </comment>
@@ -254,25 +174,13 @@
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>F L:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-未设置偏移量，所以不用偏移。识别到其中任意一个btn开头的图片后，进行鼠标左键双击。</t>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>未设置偏移量，所以不用偏移。识别到其中任意一个btn开头的图片后，进行鼠标左键双击。</t>
         </r>
       </text>
     </comment>
@@ -280,25 +188,13 @@
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>F L:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-识图 2.png 后鼠标右键单击。未设置偏移量，所以不用偏移。</t>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>识图 2.png 后鼠标右键单击。未设置偏移量，所以不用偏移。</t>
         </r>
       </text>
     </comment>
@@ -306,25 +202,13 @@
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>F L:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-输入内容 auto-key</t>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>输入内容 auto-key</t>
         </r>
       </text>
     </comment>
@@ -332,25 +216,13 @@
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>F L:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-等待 3.png 图片出现为止。</t>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>等待 3.png 图片出现为止。</t>
         </r>
       </text>
     </comment>
@@ -358,259 +230,153 @@
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>F L:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-模拟鼠标滚轮向下滚动 250个单位</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B9" authorId="0" shapeId="0" xr:uid="{7D839797-A913-411D-B327-AF46D1D7B6D1}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>F L:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-模拟按下快捷键 Win+R</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B10" authorId="0" shapeId="0" xr:uid="{96637745-C601-49D3-8889-8C3F24EC6A76}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>F L:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-未设置偏移量，所以不是拖动而是长按。鼠标在当前位置按下，长按 1秒</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B11" authorId="0" shapeId="0" xr:uid="{8A0273BE-E75F-4BB6-A6AC-4C90E7AB60A7}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>F L:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-设置了横向偏移量，所以，鼠标在当前位置按下，然后用2秒时间向右拖动233像素</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D11" authorId="0" shapeId="0" xr:uid="{7936BFC5-DD18-4965-B367-55F68FEEFC46}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>F L:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-设置了横向偏移量，所以，鼠标在当前位置按下，然后向右拖动233像素</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B12" authorId="0" shapeId="0" xr:uid="{E8FF1B21-2D2A-4952-9B56-B35A8883710A}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>F L:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-调用 1.bat</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A13" authorId="0" shapeId="0" xr:uid="{6FAAACAC-96F4-4BE8-8FA0-465D9FD2C7D1}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>F L:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-在鼠标当前位置左键单击，无需设置参数</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A14" authorId="0" shapeId="0" xr:uid="{A2174035-859C-445F-B82D-EBD9A65F1D30}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>F L:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-在鼠标当前位置右键单击，无需设置参数</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A15" authorId="0" shapeId="0" xr:uid="{C04502CA-815E-49BE-9D13-00CB2AF549C7}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>F L:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-在鼠标当前位置左键长按，无需设置参数</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A16" authorId="0" shapeId="0" xr:uid="{B6219759-04EA-4B7C-8559-8EB5C0F6DD4A}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>F L:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-在鼠标当前位置右键长按，无需设置参数</t>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>模拟鼠标滚轮向下滚动 5个单位，滚动完成后休息0.2s</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B9" authorId="0" shapeId="0" xr:uid="{433BB498-5BD7-47AA-943E-9E0B9B3D5DD2}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>模拟鼠标滚轮向右滚动 5个单位，滚动完成后休息0.2s</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B10" authorId="0" shapeId="0" xr:uid="{7D839797-A913-411D-B327-AF46D1D7B6D1}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>模拟按下快捷键 Win+R</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B11" authorId="0" shapeId="0" xr:uid="{96637745-C601-49D3-8889-8C3F24EC6A76}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>未设置偏移量，所以不是拖动而是长按。鼠标在当前位置按下，长按 1秒</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B12" authorId="0" shapeId="0" xr:uid="{8A0273BE-E75F-4BB6-A6AC-4C90E7AB60A7}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>设置了横向偏移量，所以，鼠标在当前位置按下，然后用2秒时间向右拖动233像素</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D12" authorId="0" shapeId="0" xr:uid="{7936BFC5-DD18-4965-B367-55F68FEEFC46}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>设置了横向偏移量，所以，鼠标在当前位置按下，然后向右拖动233像素</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B13" authorId="0" shapeId="0" xr:uid="{E8FF1B21-2D2A-4952-9B56-B35A8883710A}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>调用 1.bat</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A14" authorId="0" shapeId="0" xr:uid="{6FAAACAC-96F4-4BE8-8FA0-465D9FD2C7D1}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>在鼠标当前位置左键单击，无需设置参数</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A15" authorId="0" shapeId="0" xr:uid="{A2174035-859C-445F-B82D-EBD9A65F1D30}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>在鼠标当前位置右键单击，无需设置参数</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A16" authorId="0" shapeId="0" xr:uid="{C04502CA-815E-49BE-9D13-00CB2AF549C7}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>在鼠标当前位置左键长按，无需设置参数</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A17" authorId="0" shapeId="0" xr:uid="{B6219759-04EA-4B7C-8559-8EB5C0F6DD4A}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>在鼠标当前位置右键长按，无需设置参数</t>
         </r>
       </text>
     </comment>
@@ -619,7 +385,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>指令</t>
   </si>
@@ -704,6 +470,18 @@
   </si>
   <si>
     <t>just_r_press</t>
+  </si>
+  <si>
+    <t>100|200|0.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0|-5|0.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5|0|0.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -713,7 +491,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -733,27 +511,6 @@
       <color indexed="81"/>
       <name val="宋体"/>
       <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -833,7 +590,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -841,10 +598,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1125,15 +883,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S16" sqref="S16"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection sqref="A1:P52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="2" width="13.75" customWidth="1"/>
     <col min="4" max="4" width="18.625" style="1" customWidth="1"/>
     <col min="5" max="5" width="17.75" style="1" customWidth="1"/>
   </cols>
@@ -1159,14 +918,12 @@
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="7"/>
+      <c r="B2" s="10" t="s">
+        <v>26</v>
+      </c>
       <c r="C2" s="4"/>
-      <c r="D2" s="5">
-        <v>100</v>
-      </c>
-      <c r="E2" s="5">
-        <v>200</v>
-      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
@@ -1213,8 +970,8 @@
         <v>21</v>
       </c>
       <c r="C6" s="4"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
@@ -1224,101 +981,112 @@
         <v>22</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="6">
-        <v>-250</v>
+      <c r="B8" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="C8" s="4"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>23</v>
+        <v>11</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>28</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="6">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="C10" s="4"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="5">
-        <v>233</v>
-      </c>
+      <c r="D11" s="5"/>
       <c r="E11" s="5"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>24</v>
+        <v>13</v>
+      </c>
+      <c r="B12" s="6">
+        <v>2</v>
       </c>
       <c r="C12" s="4"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
+      <c r="D12" s="5">
+        <v>233</v>
+      </c>
+      <c r="E12" s="5"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="9"/>
+        <v>14</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="C13" s="4"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="9"/>
+        <v>15</v>
+      </c>
+      <c r="B14" s="8"/>
       <c r="C14" s="4"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="9"/>
+        <v>16</v>
+      </c>
+      <c r="B15" s="8"/>
       <c r="C15" s="4"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
